--- a/input.xlsx
+++ b/input.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qqq52\PycharmProjects\VicRegion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD93E9B-0FD9-4D0A-8F20-E698A0085D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088A3D37-05DC-477C-94DC-2E2EB73717E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4ngqS3+K9rsMFzJGDpWXEHctr5xY8aHVV0ecL0RocMg39CmrvTdXkX1avqfwh9o4n/3e55qW6Pd7Y0oSTNAsDA==" workbookSaltValue="ZDXgSgyk8QhIeoG83lfQ/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arable Lands" sheetId="1" r:id="rId1"/>
     <sheet name="Arable Resources" sheetId="2" r:id="rId2"/>
     <sheet name="Capped Resources" sheetId="3" r:id="rId3"/>
-    <sheet name="Uncapped Resources" sheetId="4" r:id="rId4"/>
-    <sheet name="Uncapped Resources (Discovered)" sheetId="5" r:id="rId5"/>
+    <sheet name="Hidden Resources" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,16 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>STATE_SEOUL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bg_ginseng_plantations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STATE_ACEH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bg_salt_mining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STATE_OAXACA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,61 +51,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATE_EAST_JAVA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STATE_ACRE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bg_rubber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_GABON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_SARIWON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arable lands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arable Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building Groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bg_maize_farms</t>
-  </si>
-  <si>
-    <t>bg_rubber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATE_GABON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATE_TEXAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_oil_extraction</t>
-  </si>
-  <si>
-    <t>STATE_SARIWON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_oil_extraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATE_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arable lands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arable Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Building Groups</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depleted Building Types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_tea_plantations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_banana_plantations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_lead_mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_gold_fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_gold_minings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discovered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_oil_extractions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : Column for enter states_region code
+Arable Lands : Column for enter its amount of arable lands
+Do NOT edit the first row / password : 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : state_regions를 입력하는 열
+Arable Resources : 그 주에 추가 또는 삭제할 경작지 자원을 입력하는 열, 
+그 주에 이미 있는 자원을 입력하면 삭제되고 없는 자원을 입력하면 추가된다
+첫번째 행 수정 금지 / 비밀번호 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : Column for enter state_regions code
+Arable Resources : Column for the arable resource which you want to delete or add in the state.
+If you enter the resource already available in that state, it is deleted;
+if you enter the resource not available, it is added
+Do NOT edit the first row / Password : 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : Column for enter state_regions code
+Building Groups : Column for enter building group code to add or delete in that state
+Amount : Column for amount available in the state. If you enter 0, the resource will be deleted
+Do NOT edit the first row / Password : 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : state_regions 코드를 입력하는 열
+Building Groups : 그 주에 추가할 건물 그룹 코드를 입력하는 열
+Amount : 그 주에 지을 수 있는 건물 수를 입력하는 열
+첫번째 행 수정 금지 / 비밀번호 : 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depleted Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : states_region 코드를 입력하는 열
+Arable Lands : 그 주의 경작지를 입력하는 열
+첫번째 행 수정금지 / 비밀번호 : 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE_CODE : state_regions 코드를 입력하는 열
+Building Groups : 그 주에 추가할 건물 그룹 코드를 입력하는 열
+Amount : 그 주에 지을 수 있는 최대 건물량을 입력하는 열. 0 입력시 그 주에서 삭제됨
+Depleted Building : 건물이 고갈된 이후 추가되는 건물을 입력하는 열 (예:금광 지대 -&gt; 금 광산). 없으면 비울 것
+Discovered : 게임 시작 시점에서 발견 여부를 입력하는 열(예:브라질의 고무 플랜테이션). TRUE or FALSE만 입력할 것. 
+첫번째 행 수정 금지 / 비밀번호 : 1111 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE_CODE : Column for state_regions code
+Building Groups : Column for building group code which will be added in the state
+Amount : Column for how much building can be built in the state. If you enter 0, the building will be deleted
+Depleted Building : Column for building generated after original building was deleted.(e.g.Gold Field -&gt; Gold Mine).
+Discovered : Column for whether the resource is discoverd when the game started. Only TRUE or FALSE
+Do NOT edit the first row / Password :1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,10 +202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,15 +227,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -448,93 +538,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1000</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="oEm28Qf0VVVnfPihTHdNUSv8FBSapekDF50PzxA7aFmOFEzPq7OxKfgJtQ6xTmx3JyAALcEQljbtFsUTB4sSlg==" saltValue="hao2xY60Ump7iVTg7tgS3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:I4"/>
+    <mergeCell ref="D5:I7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A233A-C0C3-4513-A172-685B3182C602}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="lIxO1CrsKMG5hWQf49dUmUDM768+HzjfMsdVFedGpuggAKiqUoAOyOC8PjT7UtLDxTQwni6ioH7/SGPqaqno7w==" saltValue="bVXAON+igIYUzn1MuuKsNA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:M5"/>
+    <mergeCell ref="D6:M10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -542,64 +805,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC86E36-2719-4936-A8C7-0EEBEAB8C73F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z9KmZDfD2WYuTop7L3NyFwSv7wo7VSf9X6PTTUGVHCWHRSAlEeW/2QXtNeeJElciw8+CnD25cbtaAZkbN/pK7Q==" saltValue="YD5krwzmn12cqbB+5Tjabw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="E6:N9"/>
+    <mergeCell ref="E2:N5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -607,136 +969,264 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2027DA38-5A20-4051-A0DD-7D7B3D356066}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
+      <c r="C6" s="1">
+        <v>333</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA2F41-2797-428D-BD7A-833DF77C7B08}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:Q7"/>
+    <mergeCell ref="G8:Q13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
